--- a/ClearView_Mester_Demo_Data_2025_11_01.xlsx
+++ b/ClearView_Mester_Demo_Data_2025_11_01.xlsx
@@ -12,35 +12,36 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" tabRatio="774"/>
   </bookViews>
   <sheets>
-    <sheet name="Ac_Tag" sheetId="23" r:id="rId1"/>
-    <sheet name="Ac_Category" sheetId="24" r:id="rId2"/>
-    <sheet name="Ac_Classification" sheetId="25" r:id="rId3"/>
-    <sheet name="Ac_Holder" sheetId="1" r:id="rId4"/>
-    <sheet name="Mode_Txn" sheetId="8" r:id="rId5"/>
-    <sheet name="Currency" sheetId="9" r:id="rId6"/>
-    <sheet name="Ac_Status" sheetId="10" r:id="rId7"/>
-    <sheet name="Status_Txn" sheetId="11" r:id="rId8"/>
-    <sheet name="Frequency" sheetId="12" r:id="rId9"/>
-    <sheet name="Txn_Income" sheetId="13" r:id="rId10"/>
-    <sheet name="Txn_Investment" sheetId="14" r:id="rId11"/>
-    <sheet name="Txn_Expense" sheetId="15" r:id="rId12"/>
-    <sheet name="Txn_Task" sheetId="16" r:id="rId13"/>
-    <sheet name="Task_Category" sheetId="17" r:id="rId14"/>
-    <sheet name="Task_Tag" sheetId="18" r:id="rId15"/>
-    <sheet name="Task_Status" sheetId="19" r:id="rId16"/>
-    <sheet name="Task_Assignee" sheetId="20" r:id="rId17"/>
-    <sheet name="Task_Priority" sheetId="21" r:id="rId18"/>
-    <sheet name="Task_Adhoc" sheetId="22" r:id="rId19"/>
+    <sheet name="Paths" sheetId="26" r:id="rId1"/>
+    <sheet name="Ac_Tag" sheetId="23" r:id="rId2"/>
+    <sheet name="Ac_Category" sheetId="24" r:id="rId3"/>
+    <sheet name="Ac_Classification" sheetId="25" r:id="rId4"/>
+    <sheet name="Ac_Holder" sheetId="1" r:id="rId5"/>
+    <sheet name="Mode_Txn" sheetId="8" r:id="rId6"/>
+    <sheet name="Currency" sheetId="9" r:id="rId7"/>
+    <sheet name="Ac_Status" sheetId="10" r:id="rId8"/>
+    <sheet name="Status_Txn" sheetId="11" r:id="rId9"/>
+    <sheet name="Frequency" sheetId="12" r:id="rId10"/>
+    <sheet name="Txn_Income" sheetId="13" r:id="rId11"/>
+    <sheet name="Txn_Investment" sheetId="14" r:id="rId12"/>
+    <sheet name="Txn_Expense" sheetId="15" r:id="rId13"/>
+    <sheet name="Txn_Task" sheetId="16" r:id="rId14"/>
+    <sheet name="Task_Category" sheetId="17" r:id="rId15"/>
+    <sheet name="Task_Tag" sheetId="18" r:id="rId16"/>
+    <sheet name="Task_Status" sheetId="19" r:id="rId17"/>
+    <sheet name="Task_Assignee" sheetId="20" r:id="rId18"/>
+    <sheet name="Task_Priority" sheetId="21" r:id="rId19"/>
+    <sheet name="Task_Adhoc" sheetId="22" r:id="rId20"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">[1]Txn_Expanse!A1:M201</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Txn_Income!$A$1:$K$100</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Txn_Investment!$A$1:$N$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">[1]Txn_Expanse!A1:M201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Txn_Income!$A$1:$K$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Txn_Investment!$A$1:$N$40</definedName>
     <definedName name="Ac_Holder_List">Ac_Holder!$A$2:$A$12</definedName>
-    <definedName name="Ac_Status_List" localSheetId="7">Status_Txn!$A$2:$A$21</definedName>
+    <definedName name="Ac_Status_List" localSheetId="8">Status_Txn!$A$2:$A$21</definedName>
     <definedName name="Ac_Status_List">#REF!</definedName>
     <definedName name="Ac_Tag_Expance_List">#REF!</definedName>
     <definedName name="Ac_Tag_Income_List">#REF!</definedName>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5252" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5262" uniqueCount="1278">
   <si>
     <t>Expense_Holder</t>
   </si>
@@ -3862,6 +3863,36 @@
   </si>
   <si>
     <t>Ac_Classification</t>
+  </si>
+  <si>
+    <t>Path Type</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Master Data File</t>
+  </si>
+  <si>
+    <t>ClearView_Mester_Demo_Data_2025_11_01.xlsx</t>
+  </si>
+  <si>
+    <t>Backup Path</t>
+  </si>
+  <si>
+    <t>Documents Path</t>
+  </si>
+  <si>
+    <t>Downloads Path</t>
+  </si>
+  <si>
+    <t>D:\My_Programs\ClearView\ClearView_Backup</t>
+  </si>
+  <si>
+    <t>D:\My_Programs\ClearView\ClearView_Documents</t>
+  </si>
+  <si>
+    <t>D:\My_Programs\ClearView\ClearView_Downloads</t>
   </si>
 </sst>
 </file>
@@ -4280,1695 +4311,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B209"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="34.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="3"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1267</v>
+      <c r="A1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1269</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1262</v>
+      <c r="A2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1271</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1262</v>
+      <c r="A3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>1262</v>
+      <c r="A4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1276</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A166" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A167" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A170" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A187" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A192" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A193" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A194" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A195" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A196" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A198" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A200" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A201" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A202" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A203" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A206" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A207" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A209" s="4" t="s">
-        <v>163</v>
+      <c r="A5" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1277</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:A12" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
@@ -9361,7 +7835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
@@ -10809,7 +9283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N201"/>
   <sheetViews>
@@ -18481,7 +16955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
@@ -20769,7 +19243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A35"/>
   <sheetViews>
@@ -20960,7 +19434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -21001,7 +19475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -21048,52 +19522,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
     <ignoredError sqref="A1:A7" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:A6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -21107,6 +19535,52 @@
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:A6" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1237</v>
       </c>
@@ -21147,7 +19621,1697 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B209"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A209" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -21220,7 +21384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B64"/>
   <sheetViews>
@@ -21752,7 +21916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -21793,7 +21957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -21871,7 +22035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
@@ -21955,7 +22119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -22009,7 +22173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A15"/>
   <sheetViews>
@@ -22102,7 +22266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A28"/>
   <sheetViews>
@@ -22260,82 +22424,4 @@
     <ignoredError sqref="A2:A28" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>347</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:A12" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
 </file>
--- a/ClearView_Mester_Demo_Data_2025_11_01.xlsx
+++ b/ClearView_Mester_Demo_Data_2025_11_01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" tabRatio="774"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" tabRatio="774" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Paths" sheetId="26" r:id="rId1"/>
@@ -19,15 +19,15 @@
     <sheet name="Ac_Holder" sheetId="1" r:id="rId5"/>
     <sheet name="Mode_Txn" sheetId="8" r:id="rId6"/>
     <sheet name="Currency" sheetId="9" r:id="rId7"/>
-    <sheet name="Ac_Status" sheetId="10" r:id="rId8"/>
-    <sheet name="Status_Txn" sheetId="11" r:id="rId9"/>
-    <sheet name="Frequency" sheetId="12" r:id="rId10"/>
-    <sheet name="Txn_Income" sheetId="13" r:id="rId11"/>
-    <sheet name="Txn_Investment" sheetId="14" r:id="rId12"/>
-    <sheet name="Txn_Expense" sheetId="15" r:id="rId13"/>
-    <sheet name="Txn_Task" sheetId="16" r:id="rId14"/>
-    <sheet name="Task_Category" sheetId="17" r:id="rId15"/>
-    <sheet name="Task_Tag" sheetId="18" r:id="rId16"/>
+    <sheet name="Country" sheetId="18" r:id="rId8"/>
+    <sheet name="Ac_Status" sheetId="10" r:id="rId9"/>
+    <sheet name="Status_Txn" sheetId="11" r:id="rId10"/>
+    <sheet name="Frequency" sheetId="12" r:id="rId11"/>
+    <sheet name="Txn_Income" sheetId="13" r:id="rId12"/>
+    <sheet name="Txn_Investment" sheetId="14" r:id="rId13"/>
+    <sheet name="Txn_Expense" sheetId="15" r:id="rId14"/>
+    <sheet name="Txn_Task" sheetId="16" r:id="rId15"/>
+    <sheet name="Task_Category" sheetId="17" r:id="rId16"/>
     <sheet name="Task_Status" sheetId="19" r:id="rId17"/>
     <sheet name="Task_Assignee" sheetId="20" r:id="rId18"/>
     <sheet name="Task_Priority" sheetId="21" r:id="rId19"/>
@@ -37,11 +37,11 @@
     <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">[1]Txn_Expanse!A1:M201</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Txn_Income!$A$1:$K$100</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Txn_Investment!$A$1:$N$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">[1]Txn_Expanse!A1:M201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Txn_Income!$A$1:$K$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Txn_Investment!$A$1:$N$40</definedName>
     <definedName name="Ac_Holder_List">Ac_Holder!$A$2:$A$12</definedName>
-    <definedName name="Ac_Status_List" localSheetId="8">Status_Txn!$A$2:$A$21</definedName>
+    <definedName name="Ac_Status_List" localSheetId="9">Status_Txn!$A$2:$A$21</definedName>
     <definedName name="Ac_Status_List">#REF!</definedName>
     <definedName name="Ac_Tag_Expance_List">#REF!</definedName>
     <definedName name="Ac_Tag_Income_List">#REF!</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5262" uniqueCount="1278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5262" uniqueCount="1279">
   <si>
     <t>Expense_Holder</t>
   </si>
@@ -3893,6 +3893,9 @@
   </si>
   <si>
     <t>D:\My_Programs\ClearView\ClearView_Downloads</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
@@ -4313,7 +4316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -4365,6 +4368,166 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:A28" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -4442,7 +4605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
@@ -7835,7 +7998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
@@ -9283,7 +9446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N201"/>
   <sheetViews>
@@ -16955,7 +17118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
@@ -19243,7 +19406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A35"/>
   <sheetViews>
@@ -19430,47 +19593,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:A35" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:A5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -22175,6 +22297,50 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:A5" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22264,164 +22430,4 @@
     <ignoredError sqref="A2:A16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>336</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:A28" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
 </file>
--- a/ClearView_Mester_Demo_Data_2025_11_01.xlsx
+++ b/ClearView_Mester_Demo_Data_2025_11_01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" tabRatio="774" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" tabRatio="774" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Paths" sheetId="26" r:id="rId1"/>
@@ -19747,8 +19747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B209"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22299,7 +22299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>

--- a/ClearView_Mester_Demo_Data_2025_11_01.xlsx
+++ b/ClearView_Mester_Demo_Data_2025_11_01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" tabRatio="774" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" tabRatio="774" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Paths" sheetId="26" r:id="rId1"/>
@@ -55,11 +55,12 @@
     <definedName name="Txn_Tag_List">Currency!$A$2:$A$7</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5262" uniqueCount="1279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5261" uniqueCount="1278">
   <si>
     <t>Expense_Holder</t>
   </si>
@@ -3758,9 +3759,6 @@
   </si>
   <si>
     <t>Taxation – India</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
   <si>
     <t>Task_Status</t>
@@ -4324,42 +4322,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1" t="s">
         <v>1268</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B2" t="s">
         <v>1270</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B3" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B4" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B5" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
   </sheetData>
@@ -4380,7 +4378,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -4539,7 +4537,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -4639,28 +4637,28 @@
         <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E1" t="s">
         <v>349</v>
       </c>
       <c r="F1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="G1" t="s">
-        <v>1250</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1251</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>1252</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -8033,7 +8031,7 @@
         <v>278</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>473</v>
@@ -8042,22 +8040,22 @@
         <v>474</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1250</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1251</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1032</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -9476,10 +9474,10 @@
         <v>164</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1032</v>
@@ -9488,25 +9486,25 @@
         <v>474</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>1254</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>1260</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1251</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -9570,7 +9568,7 @@
         <v>538</v>
       </c>
       <c r="J3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K3" t="s">
         <v>323</v>
@@ -9608,7 +9606,7 @@
         <v>541</v>
       </c>
       <c r="J4" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K4" t="s">
         <v>323</v>
@@ -9646,7 +9644,7 @@
         <v>543</v>
       </c>
       <c r="J5" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K5" t="s">
         <v>323</v>
@@ -9684,7 +9682,7 @@
         <v>477</v>
       </c>
       <c r="J6" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K6" t="s">
         <v>323</v>
@@ -9760,7 +9758,7 @@
         <v>551</v>
       </c>
       <c r="J8" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K8" t="s">
         <v>323</v>
@@ -9836,7 +9834,7 @@
         <v>557</v>
       </c>
       <c r="J10" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K10" t="s">
         <v>323</v>
@@ -9874,7 +9872,7 @@
         <v>560</v>
       </c>
       <c r="J11" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K11" t="s">
         <v>323</v>
@@ -9950,7 +9948,7 @@
         <v>402</v>
       </c>
       <c r="J13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K13" t="s">
         <v>323</v>
@@ -9988,7 +9986,7 @@
         <v>568</v>
       </c>
       <c r="J14" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K14" t="s">
         <v>323</v>
@@ -10064,7 +10062,7 @@
         <v>574</v>
       </c>
       <c r="J16" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K16" t="s">
         <v>323</v>
@@ -10178,7 +10176,7 @@
         <v>583</v>
       </c>
       <c r="J19" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K19" t="s">
         <v>323</v>
@@ -10292,7 +10290,7 @@
         <v>589</v>
       </c>
       <c r="J22" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K22" t="s">
         <v>323</v>
@@ -10368,7 +10366,7 @@
         <v>538</v>
       </c>
       <c r="J24" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K24" t="s">
         <v>323</v>
@@ -10444,7 +10442,7 @@
         <v>600</v>
       </c>
       <c r="J26" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K26" t="s">
         <v>323</v>
@@ -10482,7 +10480,7 @@
         <v>440</v>
       </c>
       <c r="J27" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K27" t="s">
         <v>323</v>
@@ -10596,7 +10594,7 @@
         <v>610</v>
       </c>
       <c r="J30" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K30" t="s">
         <v>323</v>
@@ -10634,7 +10632,7 @@
         <v>613</v>
       </c>
       <c r="J31" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K31" t="s">
         <v>323</v>
@@ -10672,7 +10670,7 @@
         <v>616</v>
       </c>
       <c r="J32" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K32" t="s">
         <v>323</v>
@@ -10900,7 +10898,7 @@
         <v>597</v>
       </c>
       <c r="J38" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K38" t="s">
         <v>323</v>
@@ -10976,7 +10974,7 @@
         <v>638</v>
       </c>
       <c r="J40" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K40" t="s">
         <v>323</v>
@@ -11052,7 +11050,7 @@
         <v>643</v>
       </c>
       <c r="J42" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K42" t="s">
         <v>323</v>
@@ -11166,7 +11164,7 @@
         <v>650</v>
       </c>
       <c r="J45" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K45" t="s">
         <v>323</v>
@@ -11394,7 +11392,7 @@
         <v>665</v>
       </c>
       <c r="J51" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K51" t="s">
         <v>323</v>
@@ -11508,7 +11506,7 @@
         <v>675</v>
       </c>
       <c r="J54" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K54" t="s">
         <v>323</v>
@@ -11660,7 +11658,7 @@
         <v>684</v>
       </c>
       <c r="J58" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K58" t="s">
         <v>323</v>
@@ -11812,7 +11810,7 @@
         <v>695</v>
       </c>
       <c r="J62" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K62" t="s">
         <v>323</v>
@@ -11926,7 +11924,7 @@
         <v>703</v>
       </c>
       <c r="J65" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K65" t="s">
         <v>323</v>
@@ -12002,7 +12000,7 @@
         <v>710</v>
       </c>
       <c r="J67" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K67" t="s">
         <v>323</v>
@@ -12040,7 +12038,7 @@
         <v>713</v>
       </c>
       <c r="J68" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K68" t="s">
         <v>323</v>
@@ -12078,7 +12076,7 @@
         <v>715</v>
       </c>
       <c r="J69" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K69" t="s">
         <v>323</v>
@@ -12154,7 +12152,7 @@
         <v>720</v>
       </c>
       <c r="J71" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K71" t="s">
         <v>323</v>
@@ -12268,7 +12266,7 @@
         <v>729</v>
       </c>
       <c r="J74" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K74" t="s">
         <v>323</v>
@@ -12610,7 +12608,7 @@
         <v>553</v>
       </c>
       <c r="J83" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K83" t="s">
         <v>323</v>
@@ -12648,7 +12646,7 @@
         <v>749</v>
       </c>
       <c r="J84" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K84" t="s">
         <v>323</v>
@@ -12686,7 +12684,7 @@
         <v>752</v>
       </c>
       <c r="J85" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K85" t="s">
         <v>323</v>
@@ -12724,7 +12722,7 @@
         <v>754</v>
       </c>
       <c r="J86" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K86" t="s">
         <v>323</v>
@@ -12800,7 +12798,7 @@
         <v>759</v>
       </c>
       <c r="J88" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K88" t="s">
         <v>323</v>
@@ -12990,7 +12988,7 @@
         <v>630</v>
       </c>
       <c r="J93" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K93" t="s">
         <v>323</v>
@@ -13142,7 +13140,7 @@
         <v>466</v>
       </c>
       <c r="J97" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K97" t="s">
         <v>323</v>
@@ -13180,7 +13178,7 @@
         <v>554</v>
       </c>
       <c r="J98" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K98" t="s">
         <v>323</v>
@@ -13256,7 +13254,7 @@
         <v>787</v>
       </c>
       <c r="J100" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K100" t="s">
         <v>323</v>
@@ -13446,7 +13444,7 @@
         <v>799</v>
       </c>
       <c r="J105" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K105" t="s">
         <v>323</v>
@@ -13712,7 +13710,7 @@
         <v>817</v>
       </c>
       <c r="J112" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K112" t="s">
         <v>323</v>
@@ -13902,7 +13900,7 @@
         <v>640</v>
       </c>
       <c r="J117" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K117" t="s">
         <v>323</v>
@@ -14016,7 +14014,7 @@
         <v>837</v>
       </c>
       <c r="J120" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K120" t="s">
         <v>323</v>
@@ -14282,7 +14280,7 @@
         <v>856</v>
       </c>
       <c r="J127" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K127" t="s">
         <v>323</v>
@@ -14510,7 +14508,7 @@
         <v>866</v>
       </c>
       <c r="J133" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K133" t="s">
         <v>323</v>
@@ -14548,7 +14546,7 @@
         <v>493</v>
       </c>
       <c r="J134" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K134" t="s">
         <v>323</v>
@@ -14586,7 +14584,7 @@
         <v>871</v>
       </c>
       <c r="J135" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K135" t="s">
         <v>323</v>
@@ -14624,7 +14622,7 @@
         <v>874</v>
       </c>
       <c r="J136" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K136" t="s">
         <v>323</v>
@@ -14662,7 +14660,7 @@
         <v>625</v>
       </c>
       <c r="J137" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K137" t="s">
         <v>323</v>
@@ -14776,7 +14774,7 @@
         <v>881</v>
       </c>
       <c r="J140" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K140" t="s">
         <v>323</v>
@@ -14814,7 +14812,7 @@
         <v>884</v>
       </c>
       <c r="J141" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K141" t="s">
         <v>323</v>
@@ -14928,7 +14926,7 @@
         <v>615</v>
       </c>
       <c r="J144" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K144" t="s">
         <v>323</v>
@@ -14966,7 +14964,7 @@
         <v>891</v>
       </c>
       <c r="J145" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K145" t="s">
         <v>323</v>
@@ -15004,7 +15002,7 @@
         <v>894</v>
       </c>
       <c r="J146" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K146" t="s">
         <v>323</v>
@@ -15042,7 +15040,7 @@
         <v>897</v>
       </c>
       <c r="J147" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K147" t="s">
         <v>323</v>
@@ -15080,7 +15078,7 @@
         <v>900</v>
       </c>
       <c r="J148" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K148" t="s">
         <v>323</v>
@@ -15118,7 +15116,7 @@
         <v>903</v>
       </c>
       <c r="J149" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K149" t="s">
         <v>323</v>
@@ -15156,7 +15154,7 @@
         <v>906</v>
       </c>
       <c r="J150" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K150" t="s">
         <v>323</v>
@@ -15194,7 +15192,7 @@
         <v>909</v>
       </c>
       <c r="J151" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K151" t="s">
         <v>323</v>
@@ -15270,7 +15268,7 @@
         <v>914</v>
       </c>
       <c r="J153" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K153" t="s">
         <v>323</v>
@@ -15460,7 +15458,7 @@
         <v>926</v>
       </c>
       <c r="J158" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K158" t="s">
         <v>323</v>
@@ -15650,7 +15648,7 @@
         <v>939</v>
       </c>
       <c r="J163" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K163" t="s">
         <v>323</v>
@@ -15764,7 +15762,7 @@
         <v>947</v>
       </c>
       <c r="J166" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K166" t="s">
         <v>323</v>
@@ -15840,7 +15838,7 @@
         <v>953</v>
       </c>
       <c r="J168" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K168" t="s">
         <v>323</v>
@@ -15916,7 +15914,7 @@
         <v>883</v>
       </c>
       <c r="J170" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K170" t="s">
         <v>323</v>
@@ -16030,7 +16028,7 @@
         <v>373</v>
       </c>
       <c r="J173" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K173" t="s">
         <v>323</v>
@@ -16296,7 +16294,7 @@
         <v>482</v>
       </c>
       <c r="J180" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K180" t="s">
         <v>323</v>
@@ -16372,7 +16370,7 @@
         <v>631</v>
       </c>
       <c r="J182" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K182" t="s">
         <v>323</v>
@@ -16410,7 +16408,7 @@
         <v>985</v>
       </c>
       <c r="J183" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K183" t="s">
         <v>323</v>
@@ -16448,7 +16446,7 @@
         <v>988</v>
       </c>
       <c r="J184" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K184" t="s">
         <v>323</v>
@@ -16486,7 +16484,7 @@
         <v>791</v>
       </c>
       <c r="J185" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K185" t="s">
         <v>323</v>
@@ -16600,7 +16598,7 @@
         <v>997</v>
       </c>
       <c r="J188" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K188" t="s">
         <v>323</v>
@@ -16638,7 +16636,7 @@
         <v>999</v>
       </c>
       <c r="J189" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K189" t="s">
         <v>323</v>
@@ -16752,7 +16750,7 @@
         <v>592</v>
       </c>
       <c r="J192" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K192" t="s">
         <v>323</v>
@@ -16828,7 +16826,7 @@
         <v>1011</v>
       </c>
       <c r="J194" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K194" t="s">
         <v>323</v>
@@ -17018,7 +17016,7 @@
         <v>1022</v>
       </c>
       <c r="J199" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K199" t="s">
         <v>323</v>
@@ -17094,7 +17092,7 @@
         <v>1028</v>
       </c>
       <c r="J201" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K201" t="s">
         <v>323</v>
@@ -17140,13 +17138,13 @@
         <v>1030</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1236</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1237</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1031</v>
@@ -19410,7 +19408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -19607,7 +19605,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -19622,7 +19620,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
@@ -19658,7 +19656,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -19704,12 +19702,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
@@ -19729,7 +19727,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
   </sheetData>
@@ -19747,7 +19745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
@@ -19760,10 +19758,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -19771,7 +19769,7 @@
         <v>165</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -19779,7 +19777,7 @@
         <v>166</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -19787,7 +19785,7 @@
         <v>167</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -19795,7 +19793,7 @@
         <v>168</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -19803,7 +19801,7 @@
         <v>169</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -19811,7 +19809,7 @@
         <v>170</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -19819,7 +19817,7 @@
         <v>171</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -19827,7 +19825,7 @@
         <v>172</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -19835,7 +19833,7 @@
         <v>173</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -19843,7 +19841,7 @@
         <v>174</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -19851,7 +19849,7 @@
         <v>175</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -19859,7 +19857,7 @@
         <v>176</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -19867,7 +19865,7 @@
         <v>177</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -19875,7 +19873,7 @@
         <v>178</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -19883,7 +19881,7 @@
         <v>179</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -19891,7 +19889,7 @@
         <v>180</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -19899,7 +19897,7 @@
         <v>181</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -19907,7 +19905,7 @@
         <v>182</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -19915,7 +19913,7 @@
         <v>183</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -19923,7 +19921,7 @@
         <v>184</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -19931,7 +19929,7 @@
         <v>185</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -19939,7 +19937,7 @@
         <v>186</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -19947,7 +19945,7 @@
         <v>187</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -19955,7 +19953,7 @@
         <v>188</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -19963,7 +19961,7 @@
         <v>189</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -19971,7 +19969,7 @@
         <v>190</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -19979,7 +19977,7 @@
         <v>191</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -19987,7 +19985,7 @@
         <v>192</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -19995,7 +19993,7 @@
         <v>193</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -20003,7 +20001,7 @@
         <v>194</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -20011,7 +20009,7 @@
         <v>195</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -20019,7 +20017,7 @@
         <v>196</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -20027,7 +20025,7 @@
         <v>197</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -20035,7 +20033,7 @@
         <v>198</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -20043,7 +20041,7 @@
         <v>199</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -20051,7 +20049,7 @@
         <v>200</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -20059,7 +20057,7 @@
         <v>201</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -20067,7 +20065,7 @@
         <v>202</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -20075,7 +20073,7 @@
         <v>203</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -20083,7 +20081,7 @@
         <v>204</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -20091,7 +20089,7 @@
         <v>205</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -20099,7 +20097,7 @@
         <v>206</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -20107,7 +20105,7 @@
         <v>207</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -20115,7 +20113,7 @@
         <v>208</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -20123,7 +20121,7 @@
         <v>209</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -20131,7 +20129,7 @@
         <v>210</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -20139,7 +20137,7 @@
         <v>211</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -20147,7 +20145,7 @@
         <v>212</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -20155,7 +20153,7 @@
         <v>213</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -20163,7 +20161,7 @@
         <v>214</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -20171,7 +20169,7 @@
         <v>215</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -20179,7 +20177,7 @@
         <v>216</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -20187,7 +20185,7 @@
         <v>217</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -20195,7 +20193,7 @@
         <v>218</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -20203,7 +20201,7 @@
         <v>219</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -20211,7 +20209,7 @@
         <v>220</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -20219,7 +20217,7 @@
         <v>221</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -20227,7 +20225,7 @@
         <v>222</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -20235,7 +20233,7 @@
         <v>223</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -20243,7 +20241,7 @@
         <v>224</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -20251,7 +20249,7 @@
         <v>225</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -20259,7 +20257,7 @@
         <v>226</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -20267,7 +20265,7 @@
         <v>227</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -20275,7 +20273,7 @@
         <v>228</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -20283,7 +20281,7 @@
         <v>229</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -20291,7 +20289,7 @@
         <v>230</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -20299,7 +20297,7 @@
         <v>231</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -20307,7 +20305,7 @@
         <v>232</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -20315,7 +20313,7 @@
         <v>233</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -20323,7 +20321,7 @@
         <v>234</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -20331,7 +20329,7 @@
         <v>235</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -20339,7 +20337,7 @@
         <v>236</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -20347,7 +20345,7 @@
         <v>237</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -20355,7 +20353,7 @@
         <v>238</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -20363,7 +20361,7 @@
         <v>239</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -20371,7 +20369,7 @@
         <v>240</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -20379,7 +20377,7 @@
         <v>241</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -20387,7 +20385,7 @@
         <v>242</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -20395,7 +20393,7 @@
         <v>243</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -20403,7 +20401,7 @@
         <v>244</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -20411,7 +20409,7 @@
         <v>245</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -20419,7 +20417,7 @@
         <v>246</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -20427,7 +20425,7 @@
         <v>247</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -20435,7 +20433,7 @@
         <v>248</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -20443,7 +20441,7 @@
         <v>249</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -20451,7 +20449,7 @@
         <v>250</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -20459,7 +20457,7 @@
         <v>251</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -20467,7 +20465,7 @@
         <v>252</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -20475,7 +20473,7 @@
         <v>253</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -20483,7 +20481,7 @@
         <v>254</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -20491,7 +20489,7 @@
         <v>255</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -20499,7 +20497,7 @@
         <v>256</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -20507,7 +20505,7 @@
         <v>257</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -20515,7 +20513,7 @@
         <v>258</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -20523,7 +20521,7 @@
         <v>259</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -20531,7 +20529,7 @@
         <v>260</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -20539,7 +20537,7 @@
         <v>261</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -20547,7 +20545,7 @@
         <v>262</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -20555,7 +20553,7 @@
         <v>263</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -20563,7 +20561,7 @@
         <v>264</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -20571,7 +20569,7 @@
         <v>265</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -20579,7 +20577,7 @@
         <v>266</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -20587,7 +20585,7 @@
         <v>267</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -20595,7 +20593,7 @@
         <v>268</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -20603,7 +20601,7 @@
         <v>269</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -20611,7 +20609,7 @@
         <v>270</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -20619,7 +20617,7 @@
         <v>67</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -20627,7 +20625,7 @@
         <v>68</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -20635,7 +20633,7 @@
         <v>271</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -20643,7 +20641,7 @@
         <v>272</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -20651,7 +20649,7 @@
         <v>273</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -20659,7 +20657,7 @@
         <v>274</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -20667,7 +20665,7 @@
         <v>275</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -20675,7 +20673,7 @@
         <v>276</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -20683,7 +20681,7 @@
         <v>277</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -20691,7 +20689,7 @@
         <v>279</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -20699,7 +20697,7 @@
         <v>280</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -20707,7 +20705,7 @@
         <v>281</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -20715,7 +20713,7 @@
         <v>282</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -20723,7 +20721,7 @@
         <v>283</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -20731,7 +20729,7 @@
         <v>284</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
@@ -20739,7 +20737,7 @@
         <v>79</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -20747,7 +20745,7 @@
         <v>80</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -20755,7 +20753,7 @@
         <v>81</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -20763,7 +20761,7 @@
         <v>82</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
@@ -20771,7 +20769,7 @@
         <v>83</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -20779,7 +20777,7 @@
         <v>28</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
@@ -20787,7 +20785,7 @@
         <v>30</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -20795,7 +20793,7 @@
         <v>84</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
@@ -20803,7 +20801,7 @@
         <v>85</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -20811,7 +20809,7 @@
         <v>86</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
@@ -20819,7 +20817,7 @@
         <v>87</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
@@ -20827,7 +20825,7 @@
         <v>88</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
@@ -20835,7 +20833,7 @@
         <v>89</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -20843,7 +20841,7 @@
         <v>90</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
@@ -20851,7 +20849,7 @@
         <v>91</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
@@ -20859,7 +20857,7 @@
         <v>92</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
@@ -20867,7 +20865,7 @@
         <v>93</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
@@ -20875,7 +20873,7 @@
         <v>94</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -20883,7 +20881,7 @@
         <v>95</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -20891,7 +20889,7 @@
         <v>96</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
@@ -20899,7 +20897,7 @@
         <v>97</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -20907,7 +20905,7 @@
         <v>98</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
@@ -20915,7 +20913,7 @@
         <v>99</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
@@ -20923,7 +20921,7 @@
         <v>100</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
@@ -20931,7 +20929,7 @@
         <v>101</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
@@ -20939,7 +20937,7 @@
         <v>102</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
@@ -20947,7 +20945,7 @@
         <v>103</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
@@ -20955,7 +20953,7 @@
         <v>104</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
@@ -20963,7 +20961,7 @@
         <v>105</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -20971,7 +20969,7 @@
         <v>106</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
@@ -20979,7 +20977,7 @@
         <v>107</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
@@ -20987,7 +20985,7 @@
         <v>108</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
@@ -20995,7 +20993,7 @@
         <v>109</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
@@ -21003,7 +21001,7 @@
         <v>110</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
@@ -21011,7 +21009,7 @@
         <v>111</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
@@ -21019,7 +21017,7 @@
         <v>112</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -21027,7 +21025,7 @@
         <v>113</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -21035,7 +21033,7 @@
         <v>114</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
@@ -21043,7 +21041,7 @@
         <v>115</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
@@ -21051,7 +21049,7 @@
         <v>116</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
@@ -21059,7 +21057,7 @@
         <v>117</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -21067,7 +21065,7 @@
         <v>118</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
@@ -21075,7 +21073,7 @@
         <v>119</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
@@ -21083,7 +21081,7 @@
         <v>120</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
@@ -21091,7 +21089,7 @@
         <v>121</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
@@ -21099,7 +21097,7 @@
         <v>122</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
@@ -21107,7 +21105,7 @@
         <v>123</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
@@ -21115,7 +21113,7 @@
         <v>124</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
@@ -21123,7 +21121,7 @@
         <v>125</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
@@ -21131,7 +21129,7 @@
         <v>126</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
@@ -21139,7 +21137,7 @@
         <v>127</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
@@ -21147,7 +21145,7 @@
         <v>128</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
@@ -21155,7 +21153,7 @@
         <v>129</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
@@ -21163,7 +21161,7 @@
         <v>130</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
@@ -21171,7 +21169,7 @@
         <v>131</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
@@ -21179,7 +21177,7 @@
         <v>132</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
@@ -21187,7 +21185,7 @@
         <v>133</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
@@ -21195,7 +21193,7 @@
         <v>134</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
@@ -21203,7 +21201,7 @@
         <v>135</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
@@ -21211,7 +21209,7 @@
         <v>136</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
@@ -21219,7 +21217,7 @@
         <v>137</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
@@ -21227,7 +21225,7 @@
         <v>138</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
@@ -21235,7 +21233,7 @@
         <v>139</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
@@ -21243,7 +21241,7 @@
         <v>140</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
@@ -21251,7 +21249,7 @@
         <v>141</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
@@ -21259,7 +21257,7 @@
         <v>142</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
@@ -21267,7 +21265,7 @@
         <v>143</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
@@ -21275,7 +21273,7 @@
         <v>144</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
@@ -21283,7 +21281,7 @@
         <v>145</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
@@ -21291,7 +21289,7 @@
         <v>146</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
@@ -21299,7 +21297,7 @@
         <v>147</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
@@ -21307,7 +21305,7 @@
         <v>148</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
@@ -21315,7 +21313,7 @@
         <v>149</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
@@ -21323,7 +21321,7 @@
         <v>150</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
@@ -21331,7 +21329,7 @@
         <v>151</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
@@ -21339,7 +21337,7 @@
         <v>152</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
@@ -21347,7 +21345,7 @@
         <v>153</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
@@ -21355,7 +21353,7 @@
         <v>154</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
@@ -21363,7 +21361,7 @@
         <v>155</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
@@ -21371,7 +21369,7 @@
         <v>156</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
@@ -21379,7 +21377,7 @@
         <v>157</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
@@ -21387,7 +21385,7 @@
         <v>158</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
@@ -21395,7 +21393,7 @@
         <v>159</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
@@ -21403,7 +21401,7 @@
         <v>160</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
@@ -21411,7 +21409,7 @@
         <v>161</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
@@ -21419,7 +21417,7 @@
         <v>162</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.35">
@@ -21445,57 +21443,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
   </sheetData>
@@ -21523,10 +21521,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1266</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -21534,7 +21532,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -21542,7 +21540,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -21550,7 +21548,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -21558,7 +21556,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -21566,7 +21564,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -21574,7 +21572,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -21582,7 +21580,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -21590,7 +21588,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -21598,7 +21596,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -21606,7 +21604,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -21614,7 +21612,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -21622,7 +21620,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -21630,7 +21628,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -21638,7 +21636,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -21646,7 +21644,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -21654,7 +21652,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -21662,7 +21660,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -21670,7 +21668,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -21678,7 +21676,7 @@
         <v>32</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -21686,7 +21684,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -21694,7 +21692,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -21702,7 +21700,7 @@
         <v>35</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -21710,7 +21708,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -21718,7 +21716,7 @@
         <v>37</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -21726,7 +21724,7 @@
         <v>38</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -21734,7 +21732,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -21742,7 +21740,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -21750,7 +21748,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -21758,7 +21756,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -21766,7 +21764,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -21774,7 +21772,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -21782,7 +21780,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -21790,7 +21788,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -21798,7 +21796,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -21806,7 +21804,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -21814,7 +21812,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -21822,7 +21820,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -21830,7 +21828,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -21838,7 +21836,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -21846,7 +21844,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -21854,7 +21852,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -21862,7 +21860,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -21870,7 +21868,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -21878,7 +21876,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -21886,7 +21884,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -21894,7 +21892,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -21902,7 +21900,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -21910,7 +21908,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -21918,7 +21916,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -21926,7 +21924,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -21934,7 +21932,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -21942,7 +21940,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -21950,7 +21948,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -21958,7 +21956,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -21966,7 +21964,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -21974,7 +21972,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -21982,7 +21980,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -21990,7 +21988,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -21998,7 +21996,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -22006,7 +22004,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -22014,7 +22012,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -22022,7 +22020,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -22030,7 +22028,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
   </sheetData>
@@ -22051,27 +22049,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
   </sheetData>
@@ -22169,7 +22167,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -22194,7 +22192,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
@@ -22253,7 +22251,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -22297,17 +22295,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -22323,18 +22321,13 @@
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1035</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1233</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A5" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -22351,7 +22344,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">

--- a/ClearView_Mester_Demo_Data_2025_11_01.xlsx
+++ b/ClearView_Mester_Demo_Data_2025_11_01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" tabRatio="774" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" tabRatio="774" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Paths" sheetId="26" r:id="rId1"/>
@@ -55,12 +55,11 @@
     <definedName name="Txn_Tag_List">Currency!$A$2:$A$7</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5261" uniqueCount="1278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5265" uniqueCount="1280">
   <si>
     <t>Expense_Holder</t>
   </si>
@@ -3894,15 +3893,28 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>15SM</t>
+  </si>
+  <si>
+    <t>208AMA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3951,14 +3963,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -21506,10 +21519,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22031,6 +22044,22 @@
         <v>1261</v>
       </c>
     </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>1264</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22040,7 +22069,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -22297,7 +22328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/ClearView_Mester_Demo_Data_2025_11_01.xlsx
+++ b/ClearView_Mester_Demo_Data_2025_11_01.xlsx
@@ -9,50 +9,61 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" tabRatio="774" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" tabRatio="774" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Paths" sheetId="26" r:id="rId1"/>
     <sheet name="Ac_Type" sheetId="27" r:id="rId2"/>
     <sheet name="Institution" sheetId="28" r:id="rId3"/>
-    <sheet name="Ac_Tag" sheetId="23" r:id="rId4"/>
-    <sheet name="Ac_Category" sheetId="24" r:id="rId5"/>
-    <sheet name="Ac_Classification" sheetId="25" r:id="rId6"/>
-    <sheet name="Ac_Holder" sheetId="1" r:id="rId7"/>
-    <sheet name="Mode_Txn" sheetId="8" r:id="rId8"/>
-    <sheet name="Currency" sheetId="9" r:id="rId9"/>
-    <sheet name="Country" sheetId="18" r:id="rId10"/>
-    <sheet name="Ac_Status" sheetId="10" r:id="rId11"/>
-    <sheet name="Status_Txn" sheetId="11" r:id="rId12"/>
-    <sheet name="Frequency" sheetId="12" r:id="rId13"/>
-    <sheet name="Txn_Income" sheetId="13" r:id="rId14"/>
-    <sheet name="Txn_Investment" sheetId="14" r:id="rId15"/>
-    <sheet name="Txn_Expense" sheetId="15" r:id="rId16"/>
-    <sheet name="Txn_Task" sheetId="16" r:id="rId17"/>
-    <sheet name="Task_Category" sheetId="17" r:id="rId18"/>
-    <sheet name="Task_Status" sheetId="19" r:id="rId19"/>
-    <sheet name="Task_Assignee" sheetId="20" r:id="rId20"/>
-    <sheet name="Task_Priority" sheetId="21" r:id="rId21"/>
-    <sheet name="Task_Adhoc" sheetId="22" r:id="rId22"/>
+    <sheet name="Email" sheetId="29" r:id="rId4"/>
+    <sheet name="Phone" sheetId="30" r:id="rId5"/>
+    <sheet name="SQA" sheetId="31" r:id="rId6"/>
+    <sheet name="Ac_Tag" sheetId="23" r:id="rId7"/>
+    <sheet name="Ac_Category" sheetId="24" r:id="rId8"/>
+    <sheet name="Ac_Classification" sheetId="25" r:id="rId9"/>
+    <sheet name="Ac_Holder" sheetId="1" r:id="rId10"/>
+    <sheet name="Mode_Txn" sheetId="8" r:id="rId11"/>
+    <sheet name="Currency" sheetId="9" r:id="rId12"/>
+    <sheet name="Country" sheetId="18" r:id="rId13"/>
+    <sheet name="Ac_Status" sheetId="10" r:id="rId14"/>
+    <sheet name="Status_Txn" sheetId="11" r:id="rId15"/>
+    <sheet name="Frequency" sheetId="12" r:id="rId16"/>
+    <sheet name="Txn_Income" sheetId="13" r:id="rId17"/>
+    <sheet name="Txn_Investment" sheetId="14" r:id="rId18"/>
+    <sheet name="Txn_Expense" sheetId="15" r:id="rId19"/>
+    <sheet name="Txn_Task" sheetId="16" r:id="rId20"/>
+    <sheet name="Task_Category" sheetId="17" r:id="rId21"/>
+    <sheet name="Task_Status" sheetId="19" r:id="rId22"/>
+    <sheet name="Task_Assignee" sheetId="20" r:id="rId23"/>
+    <sheet name="Task_Priority" sheetId="21" r:id="rId24"/>
+    <sheet name="Task_Adhoc" sheetId="22" r:id="rId25"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId23"/>
+    <externalReference r:id="rId26"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">[1]Txn_Expanse!A1:M201</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Txn_Income!$A$1:$K$100</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Txn_Investment!$A$1:$N$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">[1]Txn_Expanse!A1:M201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Txn_Income!$A$1:$K$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">Txn_Investment!$A$1:$N$40</definedName>
     <definedName name="Ac_Holder_List">Ac_Holder!$A$2:$A$12</definedName>
-    <definedName name="Ac_Status_List" localSheetId="11">Status_Txn!$A$2:$A$21</definedName>
+    <definedName name="Ac_Status_List" localSheetId="4">#REF!</definedName>
+    <definedName name="Ac_Status_List" localSheetId="14">Status_Txn!$A$2:$A$21</definedName>
     <definedName name="Ac_Status_List">#REF!</definedName>
+    <definedName name="Ac_Tag_Expance_List" localSheetId="4">#REF!</definedName>
     <definedName name="Ac_Tag_Expance_List">#REF!</definedName>
+    <definedName name="Ac_Tag_Income_List" localSheetId="4">#REF!</definedName>
     <definedName name="Ac_Tag_Income_List">#REF!</definedName>
+    <definedName name="Category_Equity_List" localSheetId="4">#REF!</definedName>
     <definedName name="Category_Equity_List">#REF!</definedName>
+    <definedName name="Category_Expanse_List" localSheetId="4">#REF!</definedName>
     <definedName name="Category_Expanse_List">#REF!</definedName>
+    <definedName name="Category_Income_List" localSheetId="4">#REF!</definedName>
     <definedName name="Category_Income_List">#REF!</definedName>
     <definedName name="Frequency_List">Frequency!$A$2:$A$12</definedName>
     <definedName name="Payment_Mode_List">Mode_Txn!$A$2:$A$13</definedName>
+    <definedName name="Txn_Status" localSheetId="4">#REF!</definedName>
     <definedName name="Txn_Status">#REF!</definedName>
+    <definedName name="Txn_Status_List" localSheetId="4">#REF!</definedName>
     <definedName name="Txn_Status_List">#REF!</definedName>
     <definedName name="Txn_Tag_List">Currency!$A$2:$A$7</definedName>
   </definedNames>
@@ -61,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5315" uniqueCount="1337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5356" uniqueCount="1377">
   <si>
     <t>Expense_Holder</t>
   </si>
@@ -4072,13 +4083,133 @@
   </si>
   <si>
     <t>Insurance</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>rajkumargarg45@gmail.com</t>
+  </si>
+  <si>
+    <t>om0agarwal@icloud.com</t>
+  </si>
+  <si>
+    <t>omagarwal.properties@gmail.com</t>
+  </si>
+  <si>
+    <t>sriraj.amit.ns@gmail.com</t>
+  </si>
+  <si>
+    <t>netpro.amit@gmail.com</t>
+  </si>
+  <si>
+    <t>amit.indocanadian@gmail.com</t>
+  </si>
+  <si>
+    <t>kiddlesshell@gmail.com</t>
+  </si>
+  <si>
+    <t>omamitrashmi@gmail.com</t>
+  </si>
+  <si>
+    <t>rash.ag.canada@gmail.com</t>
+  </si>
+  <si>
+    <t>rash.ag.canada.2021@gmail.com</t>
+  </si>
+  <si>
+    <t>amit_agarwal12@yahoo.com</t>
+  </si>
+  <si>
+    <t>om.indocanadian@gmail.com</t>
+  </si>
+  <si>
+    <t>aashie.indocanadian@gmail.com</t>
+  </si>
+  <si>
+    <t>manjufromroorkee@gmail.com</t>
+  </si>
+  <si>
+    <t>srgarg872@gmail.com</t>
+  </si>
+  <si>
+    <t>rashmi.cdn.investments@gmail.com</t>
+  </si>
+  <si>
+    <t>Amit-9031: +91-995-878-9031</t>
+  </si>
+  <si>
+    <t>Amit-9766: +91-828-777-9766</t>
+  </si>
+  <si>
+    <t>Rashmi-3450: +91-859-500-3450</t>
+  </si>
+  <si>
+    <t>Om-2554: +91-966-799-2554</t>
+  </si>
+  <si>
+    <t>NanaRita-8121: +91-963-493-8121</t>
+  </si>
+  <si>
+    <t>Sushila-2564: +91-966-799-2564</t>
+  </si>
+  <si>
+    <t>Manju-6159: +91-843-307-6159</t>
+  </si>
+  <si>
+    <t>Amit-7685: +1-647-648-7685</t>
+  </si>
+  <si>
+    <t>Rashmi-7318: +1-647-425-7318</t>
+  </si>
+  <si>
+    <t>On-1490: +1-647-648-1490</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Security_Question</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>What food do you dislike the most?</t>
+  </si>
+  <si>
+    <t>What is the name of the main character in your favourite book?</t>
+  </si>
+  <si>
+    <t>What is your favourite web browser?</t>
+  </si>
+  <si>
+    <t>What is your favourite website?</t>
+  </si>
+  <si>
+    <t>Who is your favourite author?</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>yyy</t>
+  </si>
+  <si>
+    <t>www</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>bbb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4123,6 +4254,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4141,12 +4283,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -4157,11 +4300,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -4566,6 +4713,222 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:A12" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:A5 A7:A13" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:A7" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4603,7 +4966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A15"/>
   <sheetViews>
@@ -4696,7 +5059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A28"/>
   <sheetViews>
@@ -4856,7 +5219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -4934,7 +5297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
@@ -8327,7 +8690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
@@ -9775,7 +10138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N201"/>
   <sheetViews>
@@ -17447,7 +17810,138 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A22">
+    <sortCondition ref="A21"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
@@ -19735,7 +20229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A35"/>
   <sheetViews>
@@ -19926,7 +20420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -19977,138 +20471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A1:A22">
-    <sortCondition ref="A21"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -20154,7 +20517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -20203,7 +20566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -20280,7 +20643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="B18:C19"/>
     </sheetView>
   </sheetViews>
@@ -20438,6 +20801,282 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A18">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A11">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.25" style="11" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="11"/>
+    <col min="3" max="3" width="10.08203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.6640625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B209"/>
   <sheetViews>
@@ -22127,7 +22766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B66"/>
   <sheetViews>
@@ -22675,7 +23314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -22716,220 +23355,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:A12" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>291</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:A5 A7:A13" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:A7" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
 </file>
--- a/ClearView_Mester_Demo_Data_2025_11_01.xlsx
+++ b/ClearView_Mester_Demo_Data_2025_11_01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" tabRatio="774" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" tabRatio="774" firstSheet="9" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Paths" sheetId="26" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5409" uniqueCount="1429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5411" uniqueCount="1431">
   <si>
     <t>Expense_Holder</t>
   </si>
@@ -4360,6 +4360,12 @@
   </si>
   <si>
     <t>Salary-Om</t>
+  </si>
+  <si>
+    <t>Invested_Amount</t>
+  </si>
+  <si>
+    <t>Expected_Amount</t>
   </si>
 </sst>
 </file>
@@ -8882,10 +8888,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -8904,7 +8910,7 @@
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>464</v>
       </c>
@@ -8941,8 +8947,14 @@
       <c r="L1" s="1" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M1" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>467</v>
       </c>
@@ -8980,7 +8992,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>470</v>
       </c>
@@ -9015,7 +9027,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>472</v>
       </c>
@@ -9053,7 +9065,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>475</v>
       </c>
@@ -9088,7 +9100,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>478</v>
       </c>
@@ -9123,7 +9135,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>479</v>
       </c>
@@ -9161,7 +9173,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>482</v>
       </c>
@@ -9196,7 +9208,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>484</v>
       </c>
@@ -9231,7 +9243,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>486</v>
       </c>
@@ -9266,7 +9278,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>488</v>
       </c>
@@ -9301,7 +9313,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>489</v>
       </c>
@@ -9336,7 +9348,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>491</v>
       </c>
@@ -9371,7 +9383,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>493</v>
       </c>
@@ -9406,7 +9418,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>495</v>
       </c>
@@ -9441,7 +9453,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>497</v>
       </c>
@@ -21270,7 +21282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+    <sheetView topLeftCell="A92" workbookViewId="0">
       <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
